--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il16-Cd4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il16-Cd4.xlsx
@@ -540,46 +540,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H2">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I2">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J2">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N2">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O2">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P2">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q2">
-        <v>3.199756337248</v>
+        <v>6.032377123381666</v>
       </c>
       <c r="R2">
-        <v>28.797807035232</v>
+        <v>54.29139411043499</v>
       </c>
       <c r="S2">
-        <v>0.02382256684097997</v>
+        <v>0.006620169109241079</v>
       </c>
       <c r="T2">
-        <v>0.02382256684097997</v>
+        <v>0.006620169109241078</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H3">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I3">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J3">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>21.533955</v>
       </c>
       <c r="O3">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P3">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q3">
-        <v>24.93453974972</v>
+        <v>26.18682776145166</v>
       </c>
       <c r="R3">
-        <v>224.41085774748</v>
+        <v>235.681449853065</v>
       </c>
       <c r="S3">
-        <v>0.1856406167313539</v>
+        <v>0.02873845992542906</v>
       </c>
       <c r="T3">
-        <v>0.1856406167313538</v>
+        <v>0.02873845992542905</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H4">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I4">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J4">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N4">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O4">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P4">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q4">
-        <v>1.288056820344</v>
+        <v>48.37181126173989</v>
       </c>
       <c r="R4">
-        <v>11.592511383096</v>
+        <v>435.346301355659</v>
       </c>
       <c r="S4">
-        <v>0.009589736362243143</v>
+        <v>0.05308513776961842</v>
       </c>
       <c r="T4">
-        <v>0.00958973636224314</v>
+        <v>0.05308513776961841</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,46 +726,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H5">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I5">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J5">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N5">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O5">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P5">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q5">
-        <v>0.9738964790506666</v>
+        <v>1.266503143317</v>
       </c>
       <c r="R5">
-        <v>8.765068311455998</v>
+        <v>11.398528289853</v>
       </c>
       <c r="S5">
-        <v>0.007250775222570132</v>
+        <v>0.001389910613122231</v>
       </c>
       <c r="T5">
-        <v>0.00725077522257013</v>
+        <v>0.001389910613122231</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.473752</v>
+        <v>3.648214333333333</v>
       </c>
       <c r="H6">
-        <v>10.421256</v>
+        <v>10.944643</v>
       </c>
       <c r="I6">
-        <v>0.2912886159317403</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="J6">
-        <v>0.2912886159317402</v>
+        <v>0.1438182892240057</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N6">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O6">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P6">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q6">
-        <v>8.728526756250666</v>
+        <v>49.19142274208089</v>
       </c>
       <c r="R6">
-        <v>78.556740806256</v>
+        <v>442.722804678728</v>
       </c>
       <c r="S6">
-        <v>0.06498492077459314</v>
+        <v>0.05398461180659493</v>
       </c>
       <c r="T6">
-        <v>0.06498492077459313</v>
+        <v>0.05398461180659491</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,43 +853,43 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H7">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I7">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J7">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N7">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O7">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P7">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q7">
-        <v>2.778854866274666</v>
+        <v>4.988338382463333</v>
       </c>
       <c r="R7">
-        <v>25.00969379647199</v>
+        <v>44.89504544216999</v>
       </c>
       <c r="S7">
-        <v>0.02068890528400252</v>
+        <v>0.005474399725114132</v>
       </c>
       <c r="T7">
-        <v>0.02068890528400252</v>
+        <v>0.005474399725114132</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,13 +915,13 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H8">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I8">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J8">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>21.533955</v>
       </c>
       <c r="O8">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P8">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q8">
         <v>21.65460735720333</v>
@@ -948,10 +948,10 @@
         <v>194.89146621483</v>
       </c>
       <c r="S8">
-        <v>0.1612211296144611</v>
+        <v>0.02376462209951126</v>
       </c>
       <c r="T8">
-        <v>0.1612211296144611</v>
+        <v>0.02376462209951126</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,13 +977,13 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H9">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I9">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J9">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N9">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O9">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P9">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q9">
-        <v>1.118623603174</v>
+        <v>39.99997974445977</v>
       </c>
       <c r="R9">
-        <v>10.067612428566</v>
+        <v>359.999817700138</v>
       </c>
       <c r="S9">
-        <v>0.008328285890490622</v>
+        <v>0.04389755893214027</v>
       </c>
       <c r="T9">
-        <v>0.008328285890490622</v>
+        <v>0.04389755893214027</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,43 +1039,43 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H10">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I10">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J10">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N10">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O10">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P10">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q10">
-        <v>0.8457884553751108</v>
+        <v>1.047306246294</v>
       </c>
       <c r="R10">
-        <v>7.612096098375998</v>
+        <v>9.425756216646</v>
       </c>
       <c r="S10">
-        <v>0.0062969957358791</v>
+        <v>0.001149355273687536</v>
       </c>
       <c r="T10">
-        <v>0.0062969957358791</v>
+        <v>0.001149355273687536</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,43 +1101,43 @@
         <v>3.016808666666666</v>
       </c>
       <c r="H11">
-        <v>9.050425999999998</v>
+        <v>9.050426</v>
       </c>
       <c r="I11">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="J11">
-        <v>0.2529720086650434</v>
+        <v>0.1189272947567555</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N11">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O11">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P11">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q11">
-        <v>7.580361282408443</v>
+        <v>40.67773899632178</v>
       </c>
       <c r="R11">
-        <v>68.22325154167599</v>
+        <v>366.099650966896</v>
       </c>
       <c r="S11">
-        <v>0.05643669214021015</v>
+        <v>0.04464135872630233</v>
       </c>
       <c r="T11">
-        <v>0.05643669214021015</v>
+        <v>0.04464135872630232</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H12">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I12">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J12">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N12">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O12">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P12">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q12">
-        <v>1.503132207862667</v>
+        <v>17.14340431149666</v>
       </c>
       <c r="R12">
-        <v>13.528189870764</v>
+        <v>154.29063880347</v>
       </c>
       <c r="S12">
-        <v>0.01119099822564483</v>
+        <v>0.01881384955365297</v>
       </c>
       <c r="T12">
-        <v>0.01119099822564483</v>
+        <v>0.01881384955365297</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H13">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I13">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J13">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>21.533955</v>
       </c>
       <c r="O13">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P13">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q13">
-        <v>11.71336371764833</v>
+        <v>74.42031006483666</v>
       </c>
       <c r="R13">
-        <v>105.420273458835</v>
+        <v>669.78279058353</v>
       </c>
       <c r="S13">
-        <v>0.08720738727761433</v>
+        <v>0.08167179002813869</v>
       </c>
       <c r="T13">
-        <v>0.08720738727761433</v>
+        <v>0.08167179002813868</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H14">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I14">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J14">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N14">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O14">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P14">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q14">
-        <v>0.6050834776630001</v>
+        <v>137.4677843872175</v>
       </c>
       <c r="R14">
-        <v>5.445751298967001</v>
+        <v>1237.210059484958</v>
       </c>
       <c r="S14">
-        <v>0.004504918522451297</v>
+        <v>0.1508625805552926</v>
       </c>
       <c r="T14">
-        <v>0.004504918522451297</v>
+        <v>0.1508625805552926</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,46 +1346,46 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H15">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I15">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J15">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N15">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O15">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P15">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q15">
-        <v>0.4575020753124444</v>
+        <v>3.599273553954</v>
       </c>
       <c r="R15">
-        <v>4.117518677812</v>
+        <v>32.393461985586</v>
       </c>
       <c r="S15">
-        <v>0.003406157413345888</v>
+        <v>0.00394998507391678</v>
       </c>
       <c r="T15">
-        <v>0.003406157413345888</v>
+        <v>0.00394998507391678</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.631845666666667</v>
+        <v>10.36785533333333</v>
       </c>
       <c r="H16">
-        <v>4.895537</v>
+        <v>31.103566</v>
       </c>
       <c r="I16">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="J16">
-        <v>0.136837075777874</v>
+        <v>0.4087169998040092</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N16">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O16">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P16">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q16">
-        <v>4.100352749295778</v>
+        <v>139.7970371342596</v>
       </c>
       <c r="R16">
-        <v>36.903174743662</v>
+        <v>1258.173334208336</v>
       </c>
       <c r="S16">
-        <v>0.03052761433881764</v>
+        <v>0.1534187945930082</v>
       </c>
       <c r="T16">
-        <v>0.03052761433881764</v>
+        <v>0.1534187945930081</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,46 +1470,46 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H17">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I17">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J17">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N17">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O17">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P17">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q17">
-        <v>0.1194467547</v>
+        <v>0.08858265675166666</v>
       </c>
       <c r="R17">
-        <v>1.0750207923</v>
+        <v>0.797243910765</v>
       </c>
       <c r="S17">
-        <v>0.0008892953081003126</v>
+        <v>9.721410910615344E-05</v>
       </c>
       <c r="T17">
-        <v>0.0008892953081003126</v>
+        <v>9.721410910615344E-05</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H18">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I18">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J18">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>21.533955</v>
       </c>
       <c r="O18">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P18">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q18">
-        <v>0.9308052048749998</v>
+        <v>0.3845414050816666</v>
       </c>
       <c r="R18">
-        <v>8.377246843874998</v>
+        <v>3.460872645735</v>
       </c>
       <c r="S18">
-        <v>0.006929955556596532</v>
+        <v>0.0004220109384870007</v>
       </c>
       <c r="T18">
-        <v>0.00692995555659653</v>
+        <v>0.0004220109384870006</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H19">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I19">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J19">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N19">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O19">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P19">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q19">
-        <v>0.048083100975</v>
+        <v>0.7103175855578888</v>
       </c>
       <c r="R19">
-        <v>0.432747908775</v>
+        <v>6.392858270021</v>
       </c>
       <c r="S19">
-        <v>0.0003579844107391314</v>
+        <v>0.0007795305965594094</v>
       </c>
       <c r="T19">
-        <v>0.0003579844107391314</v>
+        <v>0.0007795305965594094</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,46 +1656,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H20">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I20">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J20">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K20">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N20">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O20">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P20">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q20">
-        <v>0.03635551009999999</v>
+        <v>0.018598010523</v>
       </c>
       <c r="R20">
-        <v>0.3271995908999999</v>
+        <v>0.167382094707</v>
       </c>
       <c r="S20">
-        <v>0.0002706711005813834</v>
+        <v>2.041019190933552E-05</v>
       </c>
       <c r="T20">
-        <v>0.0002706711005813833</v>
+        <v>2.041019190933552E-05</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.129675</v>
+        <v>0.05357233333333333</v>
       </c>
       <c r="H21">
-        <v>0.389025</v>
+        <v>0.160717</v>
       </c>
       <c r="I21">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="J21">
-        <v>0.01087379043493848</v>
+        <v>0.00211190479115806</v>
       </c>
       <c r="K21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L21">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M21">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N21">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O21">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P21">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q21">
-        <v>0.32583549635</v>
+        <v>0.7223531995368889</v>
       </c>
       <c r="R21">
-        <v>2.93251946715</v>
+        <v>6.501178795832</v>
       </c>
       <c r="S21">
-        <v>0.002425884058921122</v>
+        <v>0.0007927389550961614</v>
       </c>
       <c r="T21">
-        <v>0.002425884058921122</v>
+        <v>0.0007927389550961613</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,46 +1780,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H22">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I22">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J22">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.9211239999999999</v>
+        <v>1.653515</v>
       </c>
       <c r="N22">
-        <v>2.763372</v>
+        <v>4.960545</v>
       </c>
       <c r="O22">
-        <v>0.08178337750955046</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="P22">
-        <v>0.08178337750955048</v>
+        <v>0.04603148281738885</v>
       </c>
       <c r="Q22">
-        <v>3.383641242492</v>
+        <v>13.691734189215</v>
       </c>
       <c r="R22">
-        <v>30.452771182428</v>
+        <v>123.225607702935</v>
       </c>
       <c r="S22">
-        <v>0.02519161185082283</v>
+        <v>0.01502585032027452</v>
       </c>
       <c r="T22">
-        <v>0.02519161185082284</v>
+        <v>0.01502585032027452</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H23">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I23">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J23">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>21.533955</v>
       </c>
       <c r="O23">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="P23">
-        <v>0.6373081767632703</v>
+        <v>0.1998247933589807</v>
       </c>
       <c r="Q23">
-        <v>26.367488073255</v>
+        <v>59.436450612285</v>
       </c>
       <c r="R23">
-        <v>237.307392659295</v>
+        <v>534.9280555105649</v>
       </c>
       <c r="S23">
-        <v>0.1963090875832446</v>
+        <v>0.0652279103674147</v>
       </c>
       <c r="T23">
-        <v>0.1963090875832446</v>
+        <v>0.06522791036741468</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H24">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I24">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J24">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.370797</v>
+        <v>13.25903766666667</v>
       </c>
       <c r="N24">
-        <v>1.112391</v>
+        <v>39.777113</v>
       </c>
       <c r="O24">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="P24">
-        <v>0.03292176843770089</v>
+        <v>0.3691125659750763</v>
       </c>
       <c r="Q24">
-        <v>1.362079396251</v>
+        <v>109.789883573351</v>
       </c>
       <c r="R24">
-        <v>12.258714566259</v>
+        <v>988.108952160159</v>
       </c>
       <c r="S24">
-        <v>0.0101408432517767</v>
+        <v>0.1204877581214657</v>
       </c>
       <c r="T24">
-        <v>0.0101408432517767</v>
+        <v>0.1204877581214656</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,46 +1966,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H25">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I25">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J25">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.2803586666666666</v>
+        <v>0.347157</v>
       </c>
       <c r="N25">
-        <v>0.8410759999999999</v>
+        <v>1.041471</v>
       </c>
       <c r="O25">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="P25">
-        <v>0.02489206520954206</v>
+        <v>0.009664352292199503</v>
       </c>
       <c r="Q25">
-        <v>1.029864760036</v>
+        <v>2.874592226817</v>
       </c>
       <c r="R25">
-        <v>9.268782840323999</v>
+        <v>25.871330041353</v>
       </c>
       <c r="S25">
-        <v>0.00766746573716556</v>
+        <v>0.003154691139563622</v>
       </c>
       <c r="T25">
-        <v>0.00766746573716556</v>
+        <v>0.003154691139563621</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>3.673383</v>
+        <v>8.280381</v>
       </c>
       <c r="H26">
-        <v>11.020149</v>
+        <v>24.841143</v>
       </c>
       <c r="I26">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="J26">
-        <v>0.3080285091904039</v>
+        <v>0.3264255114240716</v>
       </c>
       <c r="K26">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L26">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M26">
-        <v>2.512708666666667</v>
+        <v>13.48369866666667</v>
       </c>
       <c r="N26">
-        <v>7.538126</v>
+        <v>40.451096</v>
       </c>
       <c r="O26">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563547</v>
       </c>
       <c r="P26">
-        <v>0.2230946120799363</v>
+        <v>0.3753668055563546</v>
       </c>
       <c r="Q26">
-        <v>9.230141300086</v>
+        <v>111.650162249192</v>
       </c>
       <c r="R26">
-        <v>83.07127170077401</v>
+        <v>1004.851460242728</v>
       </c>
       <c r="S26">
-        <v>0.06871950076739423</v>
+        <v>0.1225293014753531</v>
       </c>
       <c r="T26">
-        <v>0.06871950076739423</v>
+        <v>0.1225293014753531</v>
       </c>
     </row>
   </sheetData>
